--- a/artfynd/A 13347-2024 artfynd.xlsx
+++ b/artfynd/A 13347-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130979906</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>130979891</v>
       </c>
       <c r="B3" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>130979928</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>130979929</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>130979890</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         <v>130979894</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130979930</v>
+        <v>130979907</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>590789</v>
+        <v>591205</v>
       </c>
       <c r="R8" t="n">
-        <v>6963216</v>
+        <v>6963087</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1488,12 +1488,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1520,10 +1520,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130979907</v>
+        <v>130979930</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1563,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>591205</v>
+        <v>590789</v>
       </c>
       <c r="R9" t="n">
-        <v>6963087</v>
+        <v>6963216</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1608,12 +1608,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1643,7 +1643,7 @@
         <v>130979893</v>
       </c>
       <c r="B10" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/artfynd/A 13347-2024 artfynd.xlsx
+++ b/artfynd/A 13347-2024 artfynd.xlsx
@@ -1400,7 +1400,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130979907</v>
+        <v>130979930</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1433,7 +1433,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>591205</v>
+        <v>590789</v>
       </c>
       <c r="R8" t="n">
-        <v>6963087</v>
+        <v>6963216</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1488,12 +1488,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:35</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1520,7 +1520,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130979930</v>
+        <v>130979907</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1553,7 +1553,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1563,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>590789</v>
+        <v>591205</v>
       </c>
       <c r="R9" t="n">
-        <v>6963216</v>
+        <v>6963087</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1608,12 +1608,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
